--- a/plan/0.시스템/[13신창섭150703]몬스터 스킬.xlsx
+++ b/plan/0.시스템/[13신창섭150703]몬스터 스킬.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leinster/Google 드라이브/졸업작품/졸업작품/0.시스템/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leinster/Desktop/gamebusdriver/plan/0.시스템/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>1. 기획의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,21 +163,6 @@
     <t>스킬의 설정값5</t>
   </si>
   <si>
-    <t>스킬의 설정값6</t>
-  </si>
-  <si>
-    <t>스킬의 설정값7</t>
-  </si>
-  <si>
-    <t>스킬의 설정값8</t>
-  </si>
-  <si>
-    <t>스킬의 설정값9</t>
-  </si>
-  <si>
-    <t>스킬의 설정값10</t>
-  </si>
-  <si>
     <t>스킬의 발휘 타이밍이 어떻게 되는가?(발동타이밍/전체 애니메이션 시간)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,6 +220,46 @@
   </si>
   <si>
     <t>* 플레이어의 약한 공격, 스킬 등의 대부분의 행동은 monsterSkill.txt 테이블을 통해 관리된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터의 유무. 보스 몬스터의 강력한 공격을 판별하고, 강력한 공격일 경우 사전에 범위를 표시해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSummonObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트를 사용하는 타입의 여부(1 예 / 2 아니오)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectSizeX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectSizeY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트트의 로컬좌표 기준 X축의 크기. 중심을 중심으로 -, + 방향으로 추가되는 양만큼 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트트의 로컬좌표 기준 Y축의 크기. 중심을 중심으로 -, + 방향으로 추가되는 양만큼 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트의 모양이 어떤 타입이지?(1 사각형 / 2 원형)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -296,13 +321,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -582,16 +621,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AC34"/>
+  <dimension ref="B2:AC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="89" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="89" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="2.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="26" max="26" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,7 +642,7 @@
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.25">
@@ -622,7 +662,7 @@
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
@@ -654,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>11</v>
@@ -699,13 +739,13 @@
         <v>26</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
@@ -742,10 +782,10 @@
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -790,106 +830,112 @@
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
